--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.95156797083065</v>
+        <v>91.42081062505511</v>
       </c>
       <c r="D2" t="n">
-        <v>9.265423625288792</v>
+        <v>7.712999054348263</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.49666895927517</v>
+        <v>92.61306368996235</v>
       </c>
       <c r="D3" t="n">
-        <v>10.43866957187057</v>
+        <v>8.986023814215176</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.54153751012416</v>
+        <v>92.30662245193203</v>
       </c>
       <c r="D4" t="n">
-        <v>8.717679026998217</v>
+        <v>8.663277452910641</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.97125408589169</v>
+        <v>89.54418084600847</v>
       </c>
       <c r="D5" t="n">
-        <v>8.964214544326913</v>
+        <v>8.896997056517357</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.02679618704992</v>
+        <v>87.17076474509386</v>
       </c>
       <c r="D6" t="n">
-        <v>9.35181904396191</v>
+        <v>9.337270880776979</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.35896721008071</v>
+        <v>88.45981983553145</v>
       </c>
       <c r="D7" t="n">
-        <v>8.674907303737379</v>
+        <v>7.805118087350818</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.49295755926609</v>
+        <v>86.28653906500762</v>
       </c>
       <c r="D8" t="n">
-        <v>9.873623361437181</v>
+        <v>9.10556798205481</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.55099110269857</v>
+        <v>85.53052432136462</v>
       </c>
       <c r="D9" t="n">
-        <v>8.753793998092799</v>
+        <v>7.715706711665944</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.40532406089895</v>
+        <v>83.98746708609995</v>
       </c>
       <c r="D10" t="n">
-        <v>9.037677317361041</v>
+        <v>7.717631184180465</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.60579925107506</v>
+        <v>83.57638720952093</v>
       </c>
       <c r="D11" t="n">
-        <v>8.245941016092182</v>
+        <v>8.327315866992873</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.72573833743367</v>
+        <v>81.73660312425382</v>
       </c>
       <c r="D12" t="n">
-        <v>8.726988488144848</v>
+        <v>8.945189258611594</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.23280903407404</v>
+        <v>82.32419994138147</v>
       </c>
       <c r="D13" t="n">
-        <v>9.079816154049185</v>
+        <v>8.969418993556992</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.15024241539734</v>
+        <v>81.48325592632494</v>
       </c>
       <c r="D14" t="n">
-        <v>8.780331920562952</v>
+        <v>8.228960360917128</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.96257550122105</v>
+        <v>78.45659993112025</v>
       </c>
       <c r="D15" t="n">
-        <v>8.71316125103384</v>
+        <v>8.578619274620856</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.04508234450974</v>
+        <v>77.2286344419087</v>
       </c>
       <c r="D16" t="n">
-        <v>9.719735989300128</v>
+        <v>8.053586062111409</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.26929229116691</v>
+        <v>77.42125457559462</v>
       </c>
       <c r="D17" t="n">
-        <v>10.1866223975702</v>
+        <v>8.379713919365596</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.6536960422583</v>
+        <v>75.44438712624964</v>
       </c>
       <c r="D18" t="n">
-        <v>8.051550972570416</v>
+        <v>8.394902410431452</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.21870503546242</v>
+        <v>74.21901745160778</v>
       </c>
       <c r="D19" t="n">
-        <v>8.555499075153683</v>
+        <v>7.882465482379605</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.27043366983997</v>
+        <v>74.3299172195978</v>
       </c>
       <c r="D20" t="n">
-        <v>9.26778406944803</v>
+        <v>7.716614206216435</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.16146065025987</v>
+        <v>72.89791300125464</v>
       </c>
       <c r="D21" t="n">
-        <v>8.497027743757709</v>
+        <v>7.893950105163929</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.31042102904898</v>
+        <v>72.37807022125571</v>
       </c>
       <c r="D22" t="n">
-        <v>8.894401853994307</v>
+        <v>8.152455748378983</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.68612572608178</v>
+        <v>70.03890251514312</v>
       </c>
       <c r="D23" t="n">
-        <v>8.088922495329676</v>
+        <v>9.291001352970678</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.27914183364229</v>
+        <v>68.74135608719058</v>
       </c>
       <c r="D24" t="n">
-        <v>8.343279552500199</v>
+        <v>8.320913781085924</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.26634046060863</v>
+        <v>68.23002540332827</v>
       </c>
       <c r="D25" t="n">
-        <v>8.104616891317155</v>
+        <v>8.839265275460958</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.25969876319435</v>
+        <v>66.84642650345154</v>
       </c>
       <c r="D26" t="n">
-        <v>10.06293849363931</v>
+        <v>8.867766478922846</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>68.28257010156274</v>
+        <v>65.55072219423373</v>
       </c>
       <c r="D27" t="n">
-        <v>8.581925527835747</v>
+        <v>8.206255183643318</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.5426402739527</v>
+        <v>64.78856553829633</v>
       </c>
       <c r="D28" t="n">
-        <v>9.225160635270738</v>
+        <v>8.751887203423971</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.71028255717113</v>
+        <v>65.54289174375171</v>
       </c>
       <c r="D29" t="n">
-        <v>9.254183701417695</v>
+        <v>8.453239187924403</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.31766476937963</v>
+        <v>63.25846935509367</v>
       </c>
       <c r="D30" t="n">
-        <v>9.585080191985627</v>
+        <v>8.677110331444878</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.37751492806131</v>
+        <v>61.76413853733659</v>
       </c>
       <c r="D31" t="n">
-        <v>8.338958338703089</v>
+        <v>8.594507561299043</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.87190513266273</v>
+        <v>61.24350569017903</v>
       </c>
       <c r="D32" t="n">
-        <v>8.835099071301793</v>
+        <v>8.831209338949112</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.33974623336319</v>
+        <v>60.39908442153453</v>
       </c>
       <c r="D33" t="n">
-        <v>10.03417953663912</v>
+        <v>8.434734262015946</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.28642073814046</v>
+        <v>60.2274323380969</v>
       </c>
       <c r="D34" t="n">
-        <v>8.680034871790859</v>
+        <v>8.479385248927601</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.4055785654885</v>
+        <v>57.55607093278464</v>
       </c>
       <c r="D35" t="n">
-        <v>8.743359563815094</v>
+        <v>9.303569698839052</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.60877574286386</v>
+        <v>56.50956056062711</v>
       </c>
       <c r="D36" t="n">
-        <v>8.274574363903877</v>
+        <v>8.440444945901106</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.70091846924931</v>
+        <v>56.21869450022794</v>
       </c>
       <c r="D37" t="n">
-        <v>8.309421615519968</v>
+        <v>8.395118598830775</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.14760427459655</v>
+        <v>54.93463583037094</v>
       </c>
       <c r="D38" t="n">
-        <v>8.002485762509336</v>
+        <v>8.606052106122922</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.34062623984441</v>
+        <v>52.27360245009702</v>
       </c>
       <c r="D39" t="n">
-        <v>8.0480670471041</v>
+        <v>9.166020755730861</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.99502167401846</v>
+        <v>52.01181235037876</v>
       </c>
       <c r="D40" t="n">
-        <v>8.260268603247201</v>
+        <v>9.1377091609888</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.30968598144253</v>
+        <v>50.37713111733724</v>
       </c>
       <c r="D41" t="n">
-        <v>8.121095463897639</v>
+        <v>8.877393270540439</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.89583818049717</v>
+        <v>50.25684379534585</v>
       </c>
       <c r="D42" t="n">
-        <v>7.716302564211736</v>
+        <v>7.583455440506214</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.20559539725534</v>
+        <v>48.95647996295857</v>
       </c>
       <c r="D43" t="n">
-        <v>9.993277753660891</v>
+        <v>9.060020640279031</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.6498897023131</v>
+        <v>47.38607263512387</v>
       </c>
       <c r="D44" t="n">
-        <v>9.308057038990045</v>
+        <v>8.974555017809251</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.91662237984983</v>
+        <v>46.64458724288957</v>
       </c>
       <c r="D45" t="n">
-        <v>9.568717443710334</v>
+        <v>8.064245791800937</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.12261298734356</v>
+        <v>45.26429576879161</v>
       </c>
       <c r="D46" t="n">
-        <v>8.341649431434158</v>
+        <v>9.131060358705239</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.01983971982456</v>
+        <v>45.02341116109924</v>
       </c>
       <c r="D47" t="n">
-        <v>8.338974068587905</v>
+        <v>8.904579325927408</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.30908877093335</v>
+        <v>45.29912659535028</v>
       </c>
       <c r="D48" t="n">
-        <v>7.922499973142357</v>
+        <v>8.246813944225059</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.36358513040017</v>
+        <v>43.6066764646267</v>
       </c>
       <c r="D49" t="n">
-        <v>9.675448599355725</v>
+        <v>9.596177447727047</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.11143404141915</v>
+        <v>43.5567072390269</v>
       </c>
       <c r="D50" t="n">
-        <v>8.678553969898035</v>
+        <v>8.977989949978184</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.84418257672393</v>
+        <v>41.07476027944411</v>
       </c>
       <c r="D51" t="n">
-        <v>8.700192023696417</v>
+        <v>8.64422873570391</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.91573372222226</v>
+        <v>40.58597557829786</v>
       </c>
       <c r="D52" t="n">
-        <v>8.016921629578228</v>
+        <v>8.290930772942279</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.5231833370637</v>
+        <v>39.74522120370061</v>
       </c>
       <c r="D53" t="n">
-        <v>8.868756615702408</v>
+        <v>8.222385692456106</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.46504920172094</v>
+        <v>38.00851685175632</v>
       </c>
       <c r="D54" t="n">
-        <v>8.577767842333451</v>
+        <v>8.79946582506799</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.6759296673436</v>
+        <v>37.08545326380614</v>
       </c>
       <c r="D55" t="n">
-        <v>8.670043841761139</v>
+        <v>8.789323869580359</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.78028790083362</v>
+        <v>35.54037927072592</v>
       </c>
       <c r="D56" t="n">
-        <v>8.645720723439556</v>
+        <v>8.798743374771828</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08234696664032</v>
+        <v>34.9963245420191</v>
       </c>
       <c r="D57" t="n">
-        <v>9.012815548998429</v>
+        <v>7.860433885046902</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.19503463297</v>
+        <v>35.21680162719184</v>
       </c>
       <c r="D58" t="n">
-        <v>7.773298799836208</v>
+        <v>9.202908754636745</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.10310426141329</v>
+        <v>33.51485789070012</v>
       </c>
       <c r="D59" t="n">
-        <v>9.847997277194056</v>
+        <v>7.976126077692853</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.32305136215977</v>
+        <v>31.47100759880123</v>
       </c>
       <c r="D60" t="n">
-        <v>8.029451562076115</v>
+        <v>9.646313379368467</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.87655537695228</v>
+        <v>31.86362898138126</v>
       </c>
       <c r="D61" t="n">
-        <v>8.654055773072988</v>
+        <v>8.028962146187585</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.07368113794987</v>
+        <v>30.88356544747336</v>
       </c>
       <c r="D62" t="n">
-        <v>8.386489570100737</v>
+        <v>9.11980527969463</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.18452969419118</v>
+        <v>28.71539498129097</v>
       </c>
       <c r="D63" t="n">
-        <v>8.417275207700646</v>
+        <v>8.828001614217982</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.36667382053795</v>
+        <v>27.6066237099257</v>
       </c>
       <c r="D64" t="n">
-        <v>8.419192801150194</v>
+        <v>8.762603626743747</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.86418255057025</v>
+        <v>25.98043374116575</v>
       </c>
       <c r="D65" t="n">
-        <v>8.240237649952858</v>
+        <v>8.09099693463209</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.98137266285198</v>
+        <v>25.5910942339938</v>
       </c>
       <c r="D66" t="n">
-        <v>9.282162094456536</v>
+        <v>8.604213358430128</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.57455815140276</v>
+        <v>25.64570167033489</v>
       </c>
       <c r="D67" t="n">
-        <v>8.221722509527481</v>
+        <v>8.251394698957956</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.86522603146738</v>
+        <v>24.0637848032094</v>
       </c>
       <c r="D68" t="n">
-        <v>8.200595755496289</v>
+        <v>8.741147063503844</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.29913325288611</v>
+        <v>22.19227615526718</v>
       </c>
       <c r="D69" t="n">
-        <v>8.101870657605785</v>
+        <v>8.345266991645691</v>
       </c>
     </row>
   </sheetData>
